--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.60945095062647</v>
+        <v>10668.28073917468</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.60945095062647</v>
+        <v>10668.28073917468</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77428.77258151113</v>
+        <v>5168698.673855704</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77428.77258151113</v>
+        <v>5168698.673855704</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>961535511.2523412</v>
+        <v>38367213.16797923</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12349.48614511601</v>
+        <v>1211454.955449095</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21740.27881524191</v>
+        <v>1913277.205569113</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31148.54382031738</v>
+        <v>2615099.455689131</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40741.89764752257</v>
+        <v>3316218.28215836</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50335.25147472775</v>
+        <v>4017337.108627588</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59928.60530193291</v>
+        <v>4718455.935096815</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69521.95912913808</v>
+        <v>5419574.761566042</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79115.31295634326</v>
+        <v>6120693.588035267</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88713.71908033855</v>
+        <v>6820725.547710432</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98314.42275223174</v>
+        <v>7521214.719417276</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107915.1264241249</v>
+        <v>8221703.891124125</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117515.8300960181</v>
+        <v>8922193.062830977</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>127116.5337679113</v>
+        <v>9622682.234537831</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136717.2374398044</v>
+        <v>10323171.40624469</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146317.9411116976</v>
+        <v>11023660.57795154</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
